--- a/upload/alta-ate-10h.xlsx
+++ b/upload/alta-ate-10h.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A711" workbookViewId="0">
-      <selection activeCell="A723" sqref="A723:XFD723"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A722" sqref="A722:XFD723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14734,10 +14734,10 @@
         <v>238</v>
       </c>
       <c r="E716" s="3">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F716" s="4">
-        <v>0.42273534635879217</v>
+        <v>0.42198581560283688</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -14834,10 +14834,10 @@
         <v>208</v>
       </c>
       <c r="E721" s="3">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F721" s="4">
-        <v>0.3734290843806104</v>
+        <v>0.37275985663082439</v>
       </c>
     </row>
   </sheetData>
